--- a/data/trans_bre/P1401-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5766348338578687</v>
+        <v>-0.616575115352215</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.254231322854686</v>
+        <v>0.1157299836716816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4918845893205589</v>
+        <v>-0.6242589256166767</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4254068653968904</v>
+        <v>-0.4610036131666084</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06741578272443786</v>
+        <v>-0.1447926409048419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2345519401957974</v>
+        <v>-0.2616085691217728</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.903321943430903</v>
+        <v>1.858132769932788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.379109454503384</v>
+        <v>3.035377860393436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.823311174471539</v>
+        <v>1.758797195792449</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.429550580548894</v>
+        <v>2.912426913180545</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.837123488514755</v>
+        <v>7.049953019120291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.415658265846298</v>
+        <v>1.398265277549434</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1049545909536849</v>
+        <v>0.05960529374409974</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1838561581043203</v>
+        <v>-0.05976826844302209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.91074826586208</v>
+        <v>-1.093457902527976</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.121477641716835</v>
+        <v>-0.08087459009258931</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2532567994757517</v>
+        <v>-0.1296936394843944</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3410364992586264</v>
+        <v>-0.3936819971483299</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.31520164810148</v>
+        <v>2.275704514958199</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.74458314903281</v>
+        <v>1.811845669607652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.239155700086001</v>
+        <v>1.146150356000748</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.211740721590813</v>
+        <v>6.69919677918836</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.968772388680554</v>
+        <v>5.031605785979304</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9580274308957107</v>
+        <v>0.7973525995536549</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.6743856194827621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.4583159367063923</v>
+        <v>-0.4583159367063919</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.888755305543061</v>
@@ -791,7 +791,7 @@
         <v>1.100794696916431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.2359977585470443</v>
+        <v>-0.2359977585470442</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2151176190124322</v>
+        <v>-0.2199015323666816</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1730987214623254</v>
+        <v>-0.1648735594282046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.674185745340086</v>
+        <v>-1.65212024530188</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2545650696021731</v>
+        <v>-0.2838153493967459</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.418967695611914</v>
+        <v>-0.3991297121957944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6188403293019101</v>
+        <v>-0.624162774213164</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.297852182300276</v>
+        <v>2.195749700602523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.909130085737032</v>
+        <v>1.705797344373723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6215493657422844</v>
+        <v>0.6037287359048407</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>4.779133264759712</v>
+        <v>5.998025536321739</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.673447410161039</v>
+        <v>6.523965361051374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5026662832629348</v>
+        <v>0.4665028844916452</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>1.571670704614359</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2470354135166653</v>
+        <v>0.247035413516665</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4200552227548902</v>
@@ -873,7 +873,7 @@
         <v>1.314283103448268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09714838167719451</v>
+        <v>0.09714838167719438</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.653892982515265</v>
+        <v>-0.6501399796372584</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3590004495113208</v>
+        <v>0.2175926099592726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.115353703483206</v>
+        <v>-1.057656981407789</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.30562480837663</v>
+        <v>-0.2915983011216942</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1214582396708552</v>
+        <v>0.01301610680916629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.338429488045198</v>
+        <v>-0.3258713664467273</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.255513117680461</v>
+        <v>2.058294381463313</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.886485743183394</v>
+        <v>2.793542084884402</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.347647299941112</v>
+        <v>1.355479862236881</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.846383643586233</v>
+        <v>1.759151794438509</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.561124734828549</v>
+        <v>3.316663168637048</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7337539344489528</v>
+        <v>0.7131972631945407</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.131332573612726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1609234126149942</v>
+        <v>0.1609234126149939</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.7625960841850347</v>
@@ -955,7 +955,7 @@
         <v>1.291491483090923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07613424529314622</v>
+        <v>0.07613424529314604</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3017580719721132</v>
+        <v>0.2233403665653746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5534525190978073</v>
+        <v>0.575806202303519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3970961759867206</v>
+        <v>-0.3946519663645293</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.2146276658481644</v>
+        <v>0.1397426135218945</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4336076597572228</v>
+        <v>0.5064933335453624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1613477232672585</v>
+        <v>-0.1599464559921509</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.490660141799615</v>
+        <v>1.474110211831698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.786634278187432</v>
+        <v>1.77575132927154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7893355439267493</v>
+        <v>0.7630948452680305</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.653538655896193</v>
+        <v>1.658703427255018</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.64829847990287</v>
+        <v>2.777819962311316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4326100516724518</v>
+        <v>0.4284222035966248</v>
       </c>
     </row>
     <row r="19">
